--- a/ExampleFolder/InputData/v_example/aggregation_mapping.xlsx
+++ b/ExampleFolder/InputData/v_example/aggregation_mapping.xlsx
@@ -1,41 +1,238 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/Dropbox/Fellowship 1960-2015 PFU database/InputData/v1.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/Dropbox/Fellowship 1960-2015 PFU database/InputData/v1.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A3A7DC-662B-DB40-85A6-B035D7C7AFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28462AC-6721-0A4E-A2C5-0935607D4EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="18880" tabRatio="781" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30100" windowHeight="15300" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="continent_aggregation" sheetId="5" r:id="rId1"/>
-    <sheet name="world_aggregation" sheetId="15" r:id="rId2"/>
-    <sheet name="eu_product_aggregation" sheetId="12" r:id="rId3"/>
-    <sheet name="ef.iea_product_aggregation" sheetId="13" r:id="rId4"/>
-    <sheet name="ef_product_aggregation" sheetId="21" r:id="rId5"/>
-    <sheet name="ef_sector_aggregation" sheetId="14" r:id="rId6"/>
-    <sheet name="Method" sheetId="9" state="hidden" r:id="rId7"/>
-    <sheet name="Proposed Code Structure" sheetId="11" state="hidden" r:id="rId8"/>
+    <sheet name="region_aggregation" sheetId="22" r:id="rId1"/>
+    <sheet name="continent_aggregation" sheetId="5" r:id="rId2"/>
+    <sheet name="world_aggregation" sheetId="15" r:id="rId3"/>
+    <sheet name="eu_product_aggregation" sheetId="12" r:id="rId4"/>
+    <sheet name="ef.iea_product_aggregation" sheetId="13" r:id="rId5"/>
+    <sheet name="ef_product_aggregation" sheetId="21" r:id="rId6"/>
+    <sheet name="ef_sector_aggregation" sheetId="14" r:id="rId7"/>
+    <sheet name="Method" sheetId="9" state="hidden" r:id="rId8"/>
+    <sheet name="Proposed Code Structure" sheetId="11" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">continent_aggregation!$B$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ef_product_aggregation!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ef_sector_aggregation!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ef.iea_product_aggregation!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">eu_product_aggregation!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">world_aggregation!$B$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">continent_aggregation!$B$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ef_product_aggregation!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ef_sector_aggregation!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ef.iea_product_aggregation!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">eu_product_aggregation!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">region_aggregation!$B$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">world_aggregation!$B$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A53734D1-1974-D04B-A8D6-A83BA2AA6DB4}</author>
+  </authors>
+  <commentList>
+    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{A53734D1-1974-D04B-A8D6-A83BA2AA6DB4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Changed from Asia_ to Europe on 29 Nov 2023. 
+RUS is aggregated to Europe, and a discontinuity was observed in Europe's efficiencies due to the RUS portion of SUN switching from Asia to Europe. We're hoping to eliminate the discontinuity with this change.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Matthew Heun</author>
+  </authors>
+  <commentList>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{703AB54E-7A67-3E4D-AC55-D0C6C3C24BDF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matthew Heun:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Main activity producer electricity plants were somehow not included in the list of EIOU consumers. EIOU comes from the U_EIOU matrix. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Manufacture, Natural gas extraction, and Oil extraction are industries that we add to the database, and those industries also have EIOU, but were not originally included in this list. I'm including them now, as I noticed that these industries were showing up in Grouped graphs, which was unexpected.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Finally, Transfers shows up in the U_EIOU matrix, albeit with columns of 0's. (Manufacture also has columns of 0's.) So I indluded Transfers in this aggregation list, too.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note that this problem was apparent only for Gross aggregations. Net aggregations do not include the U_EIOU matrix.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>---MKH, 22 October 2023</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{7427294A-C8C2-5B4C-BF3F-84CFE258C0DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matthew Heun:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">These flows were not included originally. But they should be aggregated to Transport when grouping final demand sectors for the World.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>---MKH, 23 October 2023</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="397">
   <si>
     <t>ALB</t>
   </si>
@@ -1193,13 +1390,46 @@
   </si>
   <si>
     <t>Coal &amp; coal products</t>
+  </si>
+  <si>
+    <t>Main activity producer electricity plants</t>
+  </si>
+  <si>
+    <t>Manufacture</t>
+  </si>
+  <si>
+    <t>Natural gas extraction</t>
+  </si>
+  <si>
+    <t>Oil extraction</t>
+  </si>
+  <si>
+    <t>Transfers</t>
+  </si>
+  <si>
+    <t>Main activity producer CHP plants</t>
+  </si>
+  <si>
+    <t>Main activity producer heat plants</t>
+  </si>
+  <si>
+    <t>International aviation</t>
+  </si>
+  <si>
+    <t>International navigation</t>
+  </si>
+  <si>
+    <t>FoSUN</t>
+  </si>
+  <si>
+    <t>FoYUG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1351,6 +1581,25 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1782,7 +2031,7 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1821,8 +2070,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1834,6 +2086,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2469,6 +2724,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Matthew Heun" id="{4F88713C-4931-3C4E-B2C3-22C563C755DA}" userId="S::mkh2@calvin.edu::790ed012-1f73-4faf-8a49-cb7986d89887" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2730,12 +2991,21 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B47" dT="2023-11-29T18:22:04.78" personId="{4F88713C-4931-3C4E-B2C3-22C563C755DA}" id="{A53734D1-1974-D04B-A8D6-A83BA2AA6DB4}">
+    <text>Changed from Asia_ to Europe on 29 Nov 2023. 
+RUS is aggregated to Europe, and a discontinuity was observed in Europe's efficiencies due to the RUS portion of SUN switching from Asia to Europe. We're hoping to eliminate the discontinuity with this change.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC20FE3-2C61-DD4B-AC4F-4EDDF1FDEE75}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2755,1279 +3025,1501 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>331</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>139</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>328</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>139</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>331</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>331</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>332</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>331</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>333</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A117" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A122" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A123" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A125" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A126" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A127" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A128" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A129" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A130" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A131" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A132" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A133" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A134" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A135" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A137" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A138" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A140" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A141" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A142" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A143" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A144" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A145" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A146" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A147" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A148" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A149" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A150" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A151" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A152" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A153" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A154" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A155" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A156" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B157" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A158" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A159" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B160" s="1"/>
+        <v>396</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B160"/>
+  <sheetViews>
+    <sheetView topLeftCell="A114" zoomScale="132" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B160" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -4120,7 +4612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B117"/>
   <sheetViews>
@@ -4653,7 +5145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C69"/>
   <sheetViews>
@@ -5235,11 +5727,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
@@ -5809,12 +6301,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B60"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5969,64 +6461,64 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>292</v>
+      <c r="A19" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>292</v>
+      <c r="A20" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>292</v>
+      <c r="A21" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>292</v>
+      <c r="A22" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>292</v>
+      <c r="A23" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>292</v>
+      <c r="A24" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>292</v>
+      <c r="A25" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>292</v>
@@ -6034,7 +6526,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>292</v>
@@ -6042,7 +6534,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>292</v>
@@ -6050,7 +6542,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>292</v>
@@ -6058,7 +6550,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>292</v>
@@ -6066,7 +6558,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>292</v>
@@ -6074,183 +6566,183 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>293</v>
+        <v>282</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>358</v>
+        <v>283</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>359</v>
+        <v>284</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>360</v>
+        <v>285</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>361</v>
+        <v>286</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B39" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B53" s="8" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>368</v>
-      </c>
-      <c r="B45" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>369</v>
-      </c>
-      <c r="B46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>370</v>
-      </c>
-      <c r="B47" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>371</v>
-      </c>
-      <c r="B48" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>372</v>
-      </c>
-      <c r="B49" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>373</v>
-      </c>
-      <c r="B50" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>374</v>
-      </c>
-      <c r="B51" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>375</v>
-      </c>
-      <c r="B52" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>376</v>
-      </c>
-      <c r="B53" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s">
         <v>295</v>
@@ -6258,7 +6750,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s">
         <v>295</v>
@@ -6266,7 +6758,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s">
         <v>295</v>
@@ -6274,7 +6766,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B57" t="s">
         <v>295</v>
@@ -6282,7 +6774,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B58" t="s">
         <v>295</v>
@@ -6290,7 +6782,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B59" t="s">
         <v>295</v>
@@ -6298,19 +6790,92 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
+        <v>374</v>
+      </c>
+      <c r="B60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>375</v>
+      </c>
+      <c r="B61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>376</v>
+      </c>
+      <c r="B62" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>377</v>
+      </c>
+      <c r="B63" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>378</v>
+      </c>
+      <c r="B64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>379</v>
+      </c>
+      <c r="B65" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>380</v>
+      </c>
+      <c r="B66" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>381</v>
+      </c>
+      <c r="B67" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>382</v>
+      </c>
+      <c r="B68" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>383</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B69" t="s">
         <v>295</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:P37"/>
   <sheetViews>
@@ -6338,18 +6903,18 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="H3" s="25" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="H3" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
       <c r="N3" s="1" t="s">
         <v>138</v>
       </c>
@@ -6361,14 +6926,14 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B4" s="20"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="21"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
       <c r="N4" s="1" t="s">
         <v>140</v>
       </c>
@@ -6380,14 +6945,14 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
       <c r="N5" s="1" t="s">
         <v>141</v>
       </c>
@@ -6428,38 +6993,38 @@
     </row>
     <row r="8" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="H9" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="2:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="20"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="21"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -6468,63 +7033,63 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="H13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="H15" s="25" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="H15" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="33"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="20"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
       <c r="H19" t="s">
         <v>150</v>
       </c>
@@ -6534,114 +7099,109 @@
       <c r="B21" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
     </row>
     <row r="22" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="20"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
       <c r="H25" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="2:5" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="20"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="2:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B3:E5"/>
-    <mergeCell ref="B9:E11"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="H9:K11"/>
-    <mergeCell ref="B27:E29"/>
     <mergeCell ref="B31:E33"/>
     <mergeCell ref="B35:E37"/>
     <mergeCell ref="H15:K17"/>
@@ -6649,6 +7209,11 @@
     <mergeCell ref="B13:E15"/>
     <mergeCell ref="B17:E19"/>
     <mergeCell ref="B23:E25"/>
+    <mergeCell ref="B3:E5"/>
+    <mergeCell ref="B9:E11"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="H9:K11"/>
+    <mergeCell ref="B27:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6656,7 +7221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
@@ -7076,18 +7641,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7109,6 +7674,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{828852AD-0200-491F-83D2-C0A0FDC8BB33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83F7A5DA-1B98-4A64-9D1E-26B3B73D80C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7122,12 +7695,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{828852AD-0200-491F-83D2-C0A0FDC8BB33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>